--- a/app/controllers/admin/student/sampleForImportStudent.xlsx
+++ b/app/controllers/admin/student/sampleForImportStudent.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>studentSapId</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>previousElectiveCredits</t>
+  </si>
+  <si>
+    <t>dateofBirthDate</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -108,9 +111,10 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -138,6 +142,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/controllers/admin/student/sampleForImportStudent.xlsx
+++ b/app/controllers/admin/student/sampleForImportStudent.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>studentSapId</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>yearOfJoining</t>
-  </si>
-  <si>
-    <t>SpecilizationName</t>
   </si>
   <si>
     <t>previousElectiveCredits</t>
@@ -96,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -114,7 +111,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -142,9 +139,6 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
